--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-20.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,31 +422,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dotnet ef database update</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>If you would rather run a script to apply the new schema to an existing database, you can script migrations from the command-line. Run this command to generate the script:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dotnet ef migrations script -o auth.sql</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
